--- a/hw10-graphs.xlsx
+++ b/hw10-graphs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauren\Desktop\cds230-hw10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C0920F-D38A-4067-A0CA-77F17BB8CB9E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354B7A56-F134-449F-9829-77D04FBDF889}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{547E46A2-0FC7-4547-BF3D-BD82FEB5D69E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="2" xr2:uid="{547E46A2-0FC7-4547-BF3D-BD82FEB5D69E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -22,6 +24,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>[2, 4, 8, 16, 32, 64, 128, 256, 512, 1024, 2048, 4096]</t>
+  </si>
+  <si>
+    <t>[0.2846922060448933, 0.42963678698534724, 0.6070285514098973, 0.42548734372075214, 0.4636456765889634, 0.4588359122251412, 0.516042754348571, 0.46177062191895824, 0.48702159470025636, 0.507858004715618, 0.499796618383708, 0.49136094195497143]</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72,6 +85,2109 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average vs Random Sample</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.39603629631307302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52643894382458101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42136724024644401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56634410217757303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51779418103147901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43905270708739602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48414923994275799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49510342475130897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.497179090297725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50391339405276403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48567885237118902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48587576668544302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE21-4FC8-9D79-205861C6CF5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="526852808"/>
+        <c:axId val="526858384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526852808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526858384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526858384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526852808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.58649163999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36709779999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14770395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1689890000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29108373999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51047757999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72987142000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94926527000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1686591099999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.38805296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6074468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.58649163999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36709779999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14770395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1689890000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29108373999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51047757999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72987142000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94926527000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1686591099999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.38805296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6074468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B2C-4B03-9F4A-6D62CD49A0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.58649163999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.36709779999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14770395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1689890000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29108373999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51047757999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72987142000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94926527000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1686591099999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.38805296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6074468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2679</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B2C-4B03-9F4A-6D62CD49A0AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="365868696"/>
+        <c:axId val="365871976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365868696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365871976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365871976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365868696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121443</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64293</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E99A339-3C5E-4849-9A8F-B6EFF230F6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA58EDF8-23E4-418C-896F-D70631F9E917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +2487,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553A127C-051C-49AD-A6EF-CCAACB602557}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.39603629631307302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.52643894382458101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.42136724024644401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.56634410217757303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0.51779418103147901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>0.43905270708739602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>0.48414923994275799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>0.49510342475130897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>0.497179090297725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>0.50391339405276403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>0.48567885237118902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>0.48587576668544302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2285591-1CB7-4DD9-952C-3BF606E331FD}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>-0.58649163999999998</v>
+      </c>
+      <c r="B1">
+        <v>-0.36709779999999997</v>
+      </c>
+      <c r="C1">
+        <v>-0.14770395</v>
+      </c>
+      <c r="D1">
+        <v>7.1689890000000006E-2</v>
+      </c>
+      <c r="E1">
+        <v>0.29108373999999998</v>
+      </c>
+      <c r="F1">
+        <v>0.51047757999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.72987142000000005</v>
+      </c>
+      <c r="H1">
+        <v>0.94926527000000005</v>
+      </c>
+      <c r="I1">
+        <v>1.1686591099999999</v>
+      </c>
+      <c r="J1">
+        <v>1.38805296</v>
+      </c>
+      <c r="K1">
+        <v>1.6074468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>139</v>
+      </c>
+      <c r="C2">
+        <v>583</v>
+      </c>
+      <c r="D2">
+        <v>1626</v>
+      </c>
+      <c r="E2">
+        <v>2733</v>
+      </c>
+      <c r="F2">
+        <v>2679</v>
+      </c>
+      <c r="G2">
+        <v>1606</v>
+      </c>
+      <c r="H2">
+        <v>497</v>
+      </c>
+      <c r="I2">
+        <v>107</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A167654E-959C-4F98-9806-C08CE2B6DFEF}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>-0.94865551999999997</v>
+      </c>
+      <c r="B1">
+        <v>-0.65613038999999995</v>
+      </c>
+      <c r="C1">
+        <v>-0.36360526999999998</v>
+      </c>
+      <c r="D1">
+        <v>-7.108014E-2</v>
+      </c>
+      <c r="E1">
+        <v>0.22144498000000001</v>
+      </c>
+      <c r="F1">
+        <v>0.51397011000000004</v>
+      </c>
+      <c r="G1">
+        <v>0.80649523000000001</v>
+      </c>
+      <c r="H1">
+        <v>1.0990203599999999</v>
+      </c>
+      <c r="I1">
+        <v>1.39154548</v>
+      </c>
+      <c r="J1">
+        <v>1.68407061</v>
+      </c>
+      <c r="K1">
+        <v>1.9765957300000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>139</v>
+      </c>
+      <c r="C2">
+        <v>583</v>
+      </c>
+      <c r="D2">
+        <v>1626</v>
+      </c>
+      <c r="E2">
+        <v>2733</v>
+      </c>
+      <c r="F2">
+        <v>2679</v>
+      </c>
+      <c r="G2">
+        <v>1606</v>
+      </c>
+      <c r="H2">
+        <v>497</v>
+      </c>
+      <c r="I2">
+        <v>107</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>-0.46774200999999999</v>
+      </c>
+      <c r="B4">
+        <v>-0.32094188000000001</v>
+      </c>
+      <c r="C4">
+        <v>-0.17414175000000001</v>
+      </c>
+      <c r="D4">
+        <v>-2.7341620000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.11945851</v>
+      </c>
+      <c r="F4">
+        <v>0.26625864999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.41305878000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.55985890999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.70665904000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.85345917000000004</v>
+      </c>
+      <c r="K4">
+        <v>1.0002593099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>404</v>
+      </c>
+      <c r="D5">
+        <v>1177</v>
+      </c>
+      <c r="E5">
+        <v>2216</v>
+      </c>
+      <c r="F5">
+        <v>2513</v>
+      </c>
+      <c r="G5">
+        <v>1730</v>
+      </c>
+      <c r="H5">
+        <v>687</v>
+      </c>
+      <c r="I5">
+        <v>158</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>